--- a/6.Cadena_de_valor.xlsx
+++ b/6.Cadena_de_valor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Planeacion-Bpin1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos D\Gobernación\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C42469-BFBB-4A9C-9EE5-4AB8AE1558C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37DC82-55C2-4BC1-8C3A-7A696E0C2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,31 +57,24 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cadena de Valor'!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Detallado!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -96,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="226">
   <si>
     <t>ACTIVIDADES DEL PROYECTO</t>
   </si>
@@ -705,12 +698,6 @@
   </si>
   <si>
     <t>VALOR AÑO 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortalecer la prestación del servicio de extensión agropecuaria </t>
-  </si>
-  <si>
-    <t>Aumentar el nivel de fortalecimiento de la asociatividad</t>
   </si>
   <si>
     <t>PERIODO</t>
@@ -729,11 +716,6 @@
 (CADENA DE VALOR)</t>
   </si>
   <si>
-    <t>Esta actividad implica el desarrollo de 2 subactividades a saber:
-Brindar acompañamiento técnico y profesional en extensión agropecuaria a pequeños y medianos productores agropecuarios para desempeñar las labores que impliquen la extensión agropecuaria de manera integral.
-También Incluye la adquisición de equipos, insumos y medicamentos veterinarios, el cual consiste en garantizar la disponibilidad de insumos de trabajo para fortalecer la extensión en el componente agrícola y pecuario, y atender al menos 2500 UPAS, de las cuales se proyecta atender a 1000 en 2022 y 1500 en 2023 según lo pactado en el plan de desarrollo.</t>
-  </si>
-  <si>
     <t>FUENTE DE FINANCIACIÓN</t>
   </si>
   <si>
@@ -776,40 +758,16 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>Fortalecer la prestación del servicio de extensión agropecuaria de los muncxiipios de ….</t>
-  </si>
-  <si>
     <t>Medido a través de</t>
   </si>
   <si>
-    <t>Número de productores</t>
-  </si>
-  <si>
-    <t>Brindar a los productores, los activos productivos asociados a la cadena de valor de la caña panelera.</t>
-  </si>
-  <si>
-    <r>
-      <t>OTROS (Especificar cual) (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Coop. Internacional)</t>
-    </r>
-  </si>
-  <si>
-    <t>1708041 - Servicio de extensión agropecuaria</t>
-  </si>
-  <si>
-    <t>297 - (1500 Productores beneficiados con servicio de extensión agropecuaria)</t>
-  </si>
-  <si>
     <t>Firma del Secretario/Jefe de Oficina/Dependencia</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>OTROS (Especificar cual) (Coop. Internacional)</t>
   </si>
 </sst>
 </file>
@@ -817,17 +775,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,13 +1017,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1073,7 +1024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1085,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -1724,12 +1681,12 @@
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1743,14 +1700,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1856,7 +1813,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,7 +1848,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1920,11 +1877,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1936,7 +1893,7 @@
     <xf numFmtId="14" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="8" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="8" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,7 +1903,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1963,26 +1920,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="25" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2013,7 +1970,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="19" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,17 +1979,17 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="36" fillId="10" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2044,18 +2001,49 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2065,6 +2053,75 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,21 +2140,9 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,82 +2161,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2228,22 +2204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2289,7 +2249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INTRODUCIR_OBJETO_FUENTE"/>
@@ -2944,7 +2904,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INTRODUCIR_OBJETO_FUENTE"/>
@@ -3599,7 +3559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="LISTA MPD"/>
@@ -6746,9 +6706,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6786,9 +6746,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6821,9 +6781,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6856,9 +6833,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7037,8 +7031,8 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="62" zoomScaleNormal="85" zoomScaleSheetLayoutView="62" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7065,21 +7059,21 @@
   <sheetData>
     <row r="1" spans="1:23" s="53" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
       <c r="O1" s="107" t="s">
         <v>196</v>
       </c>
@@ -7093,27 +7087,27 @@
       <c r="A2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="148" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="148"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="155" t="s">
+      <c r="G2" s="155"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="161" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="163"/>
+      <c r="N2" s="145"/>
       <c r="O2" s="108" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P2" s="108"/>
       <c r="Q2" s="96"/>
@@ -7125,52 +7119,50 @@
       <c r="A3" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="164"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="146"/>
       <c r="O3" s="108" t="s">
-        <v>224</v>
-      </c>
-      <c r="P3" s="108"/>
+        <v>221</v>
+      </c>
+      <c r="P3" s="122"/>
       <c r="Q3" s="84"/>
       <c r="R3" s="85"/>
       <c r="S3" s="85"/>
       <c r="T3" s="103"/>
     </row>
     <row r="4" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
       <c r="P4" s="110"/>
-      <c r="Q4" s="165" t="s">
-        <v>211</v>
-      </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
+      <c r="Q4" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
       <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -7181,7 +7173,7 @@
         <v>198</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>197</v>
@@ -7193,73 +7185,61 @@
         <v>0</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H5" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="L5" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="M5" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="N5" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="91" t="s">
+      <c r="O5" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="P5" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="N5" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="P5" s="76" t="s">
-        <v>222</v>
-      </c>
       <c r="Q5" s="76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R5" s="76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T5" s="120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="130">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="133" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="130" t="s">
-        <v>225</v>
-      </c>
+      <c r="F6" s="156"/>
       <c r="G6" s="72">
         <v>0</v>
       </c>
-      <c r="H6" s="92">
-        <v>45000000</v>
-      </c>
+      <c r="H6" s="92"/>
       <c r="I6" s="93"/>
       <c r="J6" s="93"/>
       <c r="K6" s="94"/>
@@ -7269,34 +7249,28 @@
       <c r="O6" s="94"/>
       <c r="P6" s="112">
         <f t="shared" ref="P6:P13" si="0">SUM(H6:O6)</f>
-        <v>45000000</v>
-      </c>
-      <c r="Q6" s="77">
-        <v>40000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="77"/>
       <c r="R6" s="77"/>
-      <c r="S6" s="77">
-        <v>5000000</v>
-      </c>
-      <c r="T6" s="153">
+      <c r="S6" s="77"/>
+      <c r="T6" s="135">
         <f>+P6+P7</f>
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="W6" s="74"/>
     </row>
     <row r="7" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="132"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="72">
         <v>1</v>
       </c>
-      <c r="H7" s="92">
-        <v>25000000</v>
-      </c>
+      <c r="H7" s="92"/>
       <c r="I7" s="93"/>
       <c r="J7" s="93"/>
       <c r="K7" s="94"/>
@@ -7306,109 +7280,86 @@
       <c r="O7" s="94"/>
       <c r="P7" s="112">
         <f t="shared" si="0"/>
-        <v>25000000</v>
-      </c>
-      <c r="Q7" s="77">
-        <v>25000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="77"/>
       <c r="R7" s="77"/>
       <c r="S7" s="77"/>
-      <c r="T7" s="154"/>
+      <c r="T7" s="136"/>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="130" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="130" t="s">
-        <v>228</v>
-      </c>
+      <c r="F8" s="156"/>
       <c r="G8" s="72">
         <v>0</v>
       </c>
       <c r="H8" s="92"/>
       <c r="I8" s="93"/>
-      <c r="J8" s="93">
-        <v>58000000</v>
-      </c>
-      <c r="K8" s="94">
-        <v>28000000</v>
-      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
       <c r="L8" s="94"/>
       <c r="M8" s="94"/>
-      <c r="N8" s="94">
-        <v>5000000</v>
-      </c>
+      <c r="N8" s="94"/>
       <c r="O8" s="94"/>
       <c r="P8" s="112">
         <f t="shared" si="0"/>
-        <v>91000000</v>
-      </c>
-      <c r="Q8" s="77">
-        <v>50000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="77"/>
       <c r="R8" s="77"/>
-      <c r="S8" s="77">
-        <v>41000000</v>
-      </c>
-      <c r="T8" s="153">
+      <c r="S8" s="77"/>
+      <c r="T8" s="135">
         <f t="shared" ref="T8" si="1">+P8+P9</f>
-        <v>184000000</v>
+        <v>0</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="57" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="67">
         <v>1</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="93"/>
-      <c r="J9" s="93">
-        <v>58000000</v>
-      </c>
-      <c r="K9" s="94">
-        <v>28000000</v>
-      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="93"/>
-      <c r="N9" s="93">
-        <v>7000000</v>
-      </c>
+      <c r="N9" s="93"/>
       <c r="O9" s="93"/>
       <c r="P9" s="112">
         <f t="shared" si="0"/>
-        <v>93000000</v>
-      </c>
-      <c r="Q9" s="77">
-        <f>+P9</f>
-        <v>93000000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
       <c r="S9" s="77"/>
-      <c r="T9" s="154"/>
+      <c r="T9" s="136"/>
       <c r="U9" s="73"/>
       <c r="V9" s="73"/>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="140" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="140"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="67">
         <v>0</v>
       </c>
@@ -7427,19 +7378,19 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="77"/>
       <c r="S10" s="77"/>
-      <c r="T10" s="153">
+      <c r="T10" s="135">
         <f t="shared" ref="T10" si="2">+P10+P11</f>
         <v>0</v>
       </c>
       <c r="W10" s="74"/>
     </row>
     <row r="11" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="67">
         <v>1</v>
       </c>
@@ -7458,18 +7409,18 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
-      <c r="T11" s="154"/>
+      <c r="T11" s="136"/>
       <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="140" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="140"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="67">
         <v>0</v>
       </c>
@@ -7488,19 +7439,19 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="77"/>
       <c r="S12" s="77"/>
-      <c r="T12" s="153">
+      <c r="T12" s="135">
         <f t="shared" ref="T12" si="3">+P12+P13</f>
         <v>0</v>
       </c>
       <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:23" s="57" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
       <c r="G13" s="67">
         <v>1</v>
       </c>
@@ -7519,26 +7470,26 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="77"/>
       <c r="S13" s="77"/>
-      <c r="T13" s="154"/>
+      <c r="T13" s="136"/>
       <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="105"/>
       <c r="J14" s="106">
         <f>SUM(J6:J13)</f>
-        <v>116000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="106">
         <f>SUM(K6:K13)</f>
-        <v>56000000</v>
+        <v>0</v>
       </c>
       <c r="L14" s="106">
         <f t="shared" ref="L14:S14" si="4">SUM(L6:L13)</f>
@@ -7550,7 +7501,7 @@
       </c>
       <c r="N14" s="106">
         <f t="shared" si="4"/>
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="O14" s="106">
         <f t="shared" si="4"/>
@@ -7558,11 +7509,11 @@
       </c>
       <c r="P14" s="113">
         <f t="shared" si="4"/>
-        <v>254000000</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="106">
         <f t="shared" si="4"/>
-        <v>208000000</v>
+        <v>0</v>
       </c>
       <c r="R14" s="106">
         <f t="shared" si="4"/>
@@ -7570,32 +7521,32 @@
       </c>
       <c r="S14" s="106">
         <f t="shared" si="4"/>
-        <v>46000000</v>
+        <v>0</v>
       </c>
       <c r="T14" s="109">
         <f>SUM(T6:T13)</f>
-        <v>254000000</v>
+        <v>0</v>
       </c>
       <c r="W14" s="74"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="180"/>
-      <c r="B17" s="180"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
       <c r="F17" s="80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" s="67">
         <v>0</v>
       </c>
       <c r="H17" s="88">
         <f>SUMIFS(H6:H13,$G$6:$G$13,"0")</f>
-        <v>45000000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="88">
         <f t="shared" ref="I17:S17" si="5">SUMIFS(I6:I13,$G$6:$G$13,"0")</f>
@@ -7603,11 +7554,11 @@
       </c>
       <c r="J17" s="81">
         <f t="shared" si="5"/>
-        <v>58000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="81">
         <f t="shared" si="5"/>
-        <v>28000000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="81">
         <f t="shared" si="5"/>
@@ -7619,7 +7570,7 @@
       </c>
       <c r="N17" s="81">
         <f t="shared" si="5"/>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="O17" s="81">
         <f t="shared" si="5"/>
@@ -7627,11 +7578,11 @@
       </c>
       <c r="P17" s="81">
         <f t="shared" si="5"/>
-        <v>136000000</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="81">
         <f t="shared" si="5"/>
-        <v>90000000</v>
+        <v>0</v>
       </c>
       <c r="R17" s="81">
         <f t="shared" si="5"/>
@@ -7639,26 +7590,26 @@
       </c>
       <c r="S17" s="81">
         <f t="shared" si="5"/>
-        <v>46000000</v>
+        <v>0</v>
       </c>
       <c r="T17" s="119">
         <f>SUM(H17:O17)</f>
-        <v>136000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="183"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="121"/>
       <c r="F18" s="80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G18" s="67">
         <v>1</v>
       </c>
       <c r="H18" s="88">
         <f>SUMIFS(H6:H13,$G$6:$G$13,"1")</f>
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="88">
         <f t="shared" ref="I18:S18" si="6">SUMIFS(I6:I13,$G$6:$G$13,"1")</f>
@@ -7666,11 +7617,11 @@
       </c>
       <c r="J18" s="81">
         <f t="shared" si="6"/>
-        <v>58000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="81">
         <f t="shared" si="6"/>
-        <v>28000000</v>
+        <v>0</v>
       </c>
       <c r="L18" s="81">
         <f t="shared" si="6"/>
@@ -7682,7 +7633,7 @@
       </c>
       <c r="N18" s="81">
         <f t="shared" si="6"/>
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="O18" s="81">
         <f t="shared" si="6"/>
@@ -7690,11 +7641,11 @@
       </c>
       <c r="P18" s="81">
         <f t="shared" si="6"/>
-        <v>118000000</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="81">
         <f t="shared" si="6"/>
-        <v>118000000</v>
+        <v>0</v>
       </c>
       <c r="R18" s="81">
         <f t="shared" si="6"/>
@@ -7706,20 +7657,20 @@
       </c>
       <c r="T18" s="119">
         <f>SUM(H18:O18)</f>
-        <v>118000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="114" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="183"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="121"/>
       <c r="F19" s="115" t="s">
         <v>194</v>
       </c>
       <c r="G19" s="116"/>
       <c r="H19" s="117">
         <f>SUM(H17:H18)</f>
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="117">
         <f t="shared" ref="I19:P19" si="7">SUM(I17:I18)</f>
@@ -7727,11 +7678,11 @@
       </c>
       <c r="J19" s="117">
         <f t="shared" si="7"/>
-        <v>116000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="117">
         <f t="shared" si="7"/>
-        <v>56000000</v>
+        <v>0</v>
       </c>
       <c r="L19" s="117">
         <f t="shared" si="7"/>
@@ -7743,7 +7694,7 @@
       </c>
       <c r="N19" s="117">
         <f t="shared" si="7"/>
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="O19" s="117">
         <f t="shared" si="7"/>
@@ -7751,11 +7702,11 @@
       </c>
       <c r="P19" s="117">
         <f t="shared" si="7"/>
-        <v>254000000</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="117">
         <f t="shared" ref="Q19" si="8">SUM(Q17:Q18)</f>
-        <v>208000000</v>
+        <v>0</v>
       </c>
       <c r="R19" s="117">
         <f t="shared" ref="R19" si="9">SUM(R17:R18)</f>
@@ -7763,50 +7714,28 @@
       </c>
       <c r="S19" s="117">
         <f t="shared" ref="S19" si="10">SUM(S17:S18)</f>
-        <v>46000000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="118">
         <f>SUM(T17:T18)</f>
-        <v>254000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="182" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
+      <c r="A20" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="125"/>
+      <c r="C20" s="121"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="184" t="str">
-        <f ca="1">_xlfn.CONCAT(DAY(TODAY())," de ",MONTH(TODAY())," de ",YEAR(TODAY()))</f>
-        <v>13 de 9 de 2024</v>
-      </c>
-      <c r="B21" s="179"/>
+      <c r="A21" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A6:A9"/>
@@ -7822,11 +7751,32 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="14" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="21" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Arial,Normal"&amp;8Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
@@ -7841,7 +7791,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7862,21 +7812,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>11</v>
@@ -7897,17 +7847,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="str" cm="1">
         <f t="array" ref="A3">+'Cadena de Valor'!E6:E6</f>
         <v>1.1.1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>210</v>
-      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="42" t="s">
         <v>14</v>
       </c>
@@ -7916,15 +7862,15 @@
       </c>
       <c r="F3" s="43">
         <f>+'Cadena de Valor'!P6</f>
-        <v>45000000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="43">
         <f>+'Cadena de Valor'!P7</f>
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="43">
         <f>SUM(F3:G3)</f>
-        <v>70000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -7976,15 +7922,15 @@
       <c r="E7" s="46"/>
       <c r="F7" s="71">
         <f>SUM(F3:F6)</f>
-        <v>45000000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="71">
         <f>SUM(G3:G6)</f>
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="71">
         <f>SUM(H3:H6)</f>
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="69">
         <v>44736</v>
@@ -7999,7 +7945,7 @@
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -8072,8 +8018,8 @@
       <c r="D12" s="62"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="170"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
@@ -8252,7 +8198,7 @@
   <phoneticPr fontId="30" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="14" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8274,18 +8220,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -8300,7 +8246,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="178" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8313,7 +8259,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>25</v>
@@ -8322,7 +8268,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -8331,7 +8277,7 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -8344,7 +8290,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
         <v>25</v>
@@ -8353,7 +8299,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>26</v>
@@ -8362,7 +8308,7 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="178" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -8377,7 +8323,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
@@ -8390,7 +8336,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="173"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
@@ -8666,7 +8612,7 @@
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="178" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8681,7 +8627,7 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="172"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
@@ -8690,7 +8636,7 @@
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="173"/>
+      <c r="A42" s="180"/>
       <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
@@ -8705,7 +8651,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="178" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -8722,7 +8668,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="9" t="s">
         <v>35</v>
       </c>
@@ -8735,7 +8681,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
+      <c r="A45" s="179"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
@@ -8744,7 +8690,7 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
+      <c r="A46" s="179"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
@@ -8753,7 +8699,7 @@
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="179"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
@@ -8762,7 +8708,7 @@
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
+      <c r="A48" s="179"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
@@ -8771,7 +8717,7 @@
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="173"/>
+      <c r="A49" s="180"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
@@ -8795,7 +8741,7 @@
       <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="171" t="s">
+      <c r="A51" s="178" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -8810,7 +8756,7 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
+      <c r="A52" s="179"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
@@ -8819,7 +8765,7 @@
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="173"/>
+      <c r="A53" s="180"/>
       <c r="B53" s="33"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
@@ -8828,7 +8774,7 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="178" t="s">
         <v>90</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -8843,7 +8789,7 @@
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="173"/>
+      <c r="A55" s="180"/>
       <c r="B55" s="33"/>
       <c r="C55" s="13" t="s">
         <v>92</v>
@@ -8854,7 +8800,7 @@
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
+      <c r="A56" s="178" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -8869,7 +8815,7 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="172"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="34"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
@@ -8878,7 +8824,7 @@
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="172"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="34"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="s">
@@ -8887,7 +8833,7 @@
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="172"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="34"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
@@ -8896,7 +8842,7 @@
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="172"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>99</v>
@@ -8907,7 +8853,7 @@
       <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="172"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="34"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
@@ -8916,7 +8862,7 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="172"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="34"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="s">
@@ -8925,7 +8871,7 @@
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="172"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="34"/>
       <c r="C63" s="10" t="s">
         <v>83</v>
@@ -8936,7 +8882,7 @@
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="172"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="34"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
@@ -8945,7 +8891,7 @@
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="34"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
@@ -8954,7 +8900,7 @@
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="34"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
@@ -8963,7 +8909,7 @@
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="172"/>
+      <c r="A67" s="179"/>
       <c r="B67" s="34"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
@@ -8972,7 +8918,7 @@
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="172"/>
+      <c r="A68" s="179"/>
       <c r="B68" s="34"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
@@ -8981,7 +8927,7 @@
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="172"/>
+      <c r="A69" s="179"/>
       <c r="B69" s="34"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
@@ -8990,7 +8936,7 @@
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="63" x14ac:dyDescent="0.3">
-      <c r="A70" s="172"/>
+      <c r="A70" s="179"/>
       <c r="B70" s="34"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
@@ -8999,7 +8945,7 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="172"/>
+      <c r="A71" s="179"/>
       <c r="B71" s="34"/>
       <c r="C71" s="10" t="s">
         <v>92</v>
@@ -9010,7 +8956,7 @@
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="172"/>
+      <c r="A72" s="179"/>
       <c r="B72" s="34"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
@@ -9019,7 +8965,7 @@
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="172"/>
+      <c r="A73" s="179"/>
       <c r="B73" s="34"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
@@ -9028,7 +8974,7 @@
       <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="172"/>
+      <c r="A74" s="179"/>
       <c r="B74" s="34"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
@@ -9037,7 +8983,7 @@
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="173"/>
+      <c r="A75" s="180"/>
       <c r="B75" s="33"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
@@ -9046,7 +8992,7 @@
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="171" t="s">
+      <c r="A76" s="178" t="s">
         <v>116</v>
       </c>
       <c r="B76" s="35" t="s">
@@ -9061,7 +9007,7 @@
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="172"/>
+      <c r="A77" s="179"/>
       <c r="B77" s="34"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
@@ -9070,7 +9016,7 @@
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="172"/>
+      <c r="A78" s="179"/>
       <c r="B78" s="36" t="s">
         <v>119</v>
       </c>
@@ -9083,7 +9029,7 @@
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="172"/>
+      <c r="A79" s="179"/>
       <c r="B79" s="34"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
@@ -9092,7 +9038,7 @@
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="172"/>
+      <c r="A80" s="179"/>
       <c r="B80" s="34"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
@@ -9101,7 +9047,7 @@
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="172"/>
+      <c r="A81" s="179"/>
       <c r="B81" s="34"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
@@ -9110,7 +9056,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
+      <c r="A82" s="179"/>
       <c r="B82" s="34"/>
       <c r="C82" s="10" t="s">
         <v>125</v>
@@ -9121,7 +9067,7 @@
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
+      <c r="A83" s="179"/>
       <c r="B83" s="34"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
@@ -9130,7 +9076,7 @@
       <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
+      <c r="A84" s="179"/>
       <c r="B84" s="34"/>
       <c r="C84" s="10" t="s">
         <v>128</v>
@@ -9141,7 +9087,7 @@
       <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="172"/>
+      <c r="A85" s="179"/>
       <c r="B85" s="34"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
@@ -9150,7 +9096,7 @@
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="172"/>
+      <c r="A86" s="179"/>
       <c r="B86" s="34"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
@@ -9159,7 +9105,7 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="172"/>
+      <c r="A87" s="179"/>
       <c r="B87" s="34"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
@@ -9168,7 +9114,7 @@
       <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="172"/>
+      <c r="A88" s="179"/>
       <c r="B88" s="34"/>
       <c r="C88" s="10" t="s">
         <v>133</v>
@@ -9179,7 +9125,7 @@
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="172"/>
+      <c r="A89" s="179"/>
       <c r="B89" s="34"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
@@ -9188,7 +9134,7 @@
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="172"/>
+      <c r="A90" s="179"/>
       <c r="B90" s="34"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
@@ -9197,7 +9143,7 @@
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="172"/>
+      <c r="A91" s="179"/>
       <c r="B91" s="34"/>
       <c r="C91" s="10" t="s">
         <v>137</v>
@@ -9206,7 +9152,7 @@
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="172"/>
+      <c r="A92" s="179"/>
       <c r="B92" s="34"/>
       <c r="C92" s="10" t="s">
         <v>138</v>
@@ -9215,7 +9161,7 @@
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="172"/>
+      <c r="A93" s="179"/>
       <c r="B93" s="34"/>
       <c r="C93" s="10" t="s">
         <v>139</v>
@@ -9224,7 +9170,7 @@
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="172"/>
+      <c r="A94" s="179"/>
       <c r="B94" s="34"/>
       <c r="C94" s="10" t="s">
         <v>140</v>
@@ -9233,7 +9179,7 @@
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="172"/>
+      <c r="A95" s="179"/>
       <c r="B95" s="34"/>
       <c r="C95" s="10" t="s">
         <v>141</v>
@@ -9242,7 +9188,7 @@
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="172"/>
+      <c r="A96" s="179"/>
       <c r="B96" s="34"/>
       <c r="C96" s="10" t="s">
         <v>142</v>
@@ -9251,7 +9197,7 @@
       <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="172"/>
+      <c r="A97" s="179"/>
       <c r="B97" s="34"/>
       <c r="C97" s="10" t="s">
         <v>143</v>
@@ -9260,7 +9206,7 @@
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="172"/>
+      <c r="A98" s="179"/>
       <c r="B98" s="34"/>
       <c r="C98" s="10" t="s">
         <v>144</v>
@@ -9269,7 +9215,7 @@
       <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="172"/>
+      <c r="A99" s="179"/>
       <c r="B99" s="36" t="s">
         <v>145</v>
       </c>
@@ -9282,7 +9228,7 @@
       <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="172"/>
+      <c r="A100" s="179"/>
       <c r="B100" s="34"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
@@ -9291,7 +9237,7 @@
       <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="172"/>
+      <c r="A101" s="179"/>
       <c r="B101" s="34"/>
       <c r="C101" s="10" t="s">
         <v>149</v>
@@ -9302,7 +9248,7 @@
       <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="172"/>
+      <c r="A102" s="179"/>
       <c r="B102" s="34"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="s">
@@ -9311,7 +9257,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="172"/>
+      <c r="A103" s="179"/>
       <c r="B103" s="34"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
@@ -9320,7 +9266,7 @@
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="172"/>
+      <c r="A104" s="179"/>
       <c r="B104" s="34"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10" t="s">
@@ -9329,7 +9275,7 @@
       <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="172"/>
+      <c r="A105" s="179"/>
       <c r="B105" s="34"/>
       <c r="C105" s="10" t="s">
         <v>154</v>
@@ -9338,7 +9284,7 @@
       <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="172"/>
+      <c r="A106" s="179"/>
       <c r="B106" s="34"/>
       <c r="C106" s="10" t="s">
         <v>155</v>
@@ -9347,7 +9293,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="172"/>
+      <c r="A107" s="179"/>
       <c r="B107" s="34"/>
       <c r="C107" s="10" t="s">
         <v>156</v>
@@ -9356,7 +9302,7 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="172"/>
+      <c r="A108" s="179"/>
       <c r="B108" s="34"/>
       <c r="C108" s="10" t="s">
         <v>157</v>
@@ -9365,7 +9311,7 @@
       <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="172"/>
+      <c r="A109" s="179"/>
       <c r="B109" s="34"/>
       <c r="C109" s="10" t="s">
         <v>158</v>
@@ -9374,7 +9320,7 @@
       <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="172"/>
+      <c r="A110" s="179"/>
       <c r="B110" s="36" t="s">
         <v>159</v>
       </c>
@@ -9385,7 +9331,7 @@
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="172"/>
+      <c r="A111" s="179"/>
       <c r="B111" s="34"/>
       <c r="C111" s="10" t="s">
         <v>161</v>
@@ -9396,7 +9342,7 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="172"/>
+      <c r="A112" s="179"/>
       <c r="B112" s="34"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="s">
@@ -9405,7 +9351,7 @@
       <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="172"/>
+      <c r="A113" s="179"/>
       <c r="B113" s="36" t="s">
         <v>164</v>
       </c>
@@ -9416,7 +9362,7 @@
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="172"/>
+      <c r="A114" s="179"/>
       <c r="B114" s="34"/>
       <c r="C114" s="10" t="s">
         <v>166</v>
@@ -9425,7 +9371,7 @@
       <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="172"/>
+      <c r="A115" s="179"/>
       <c r="B115" s="36" t="s">
         <v>167</v>
       </c>
@@ -9438,7 +9384,7 @@
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="172"/>
+      <c r="A116" s="179"/>
       <c r="B116" s="34"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="s">
@@ -9447,7 +9393,7 @@
       <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="172"/>
+      <c r="A117" s="179"/>
       <c r="B117" s="34"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
@@ -9456,7 +9402,7 @@
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="172"/>
+      <c r="A118" s="179"/>
       <c r="B118" s="34"/>
       <c r="C118" s="10" t="s">
         <v>172</v>
@@ -9465,7 +9411,7 @@
       <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="172"/>
+      <c r="A119" s="179"/>
       <c r="B119" s="34"/>
       <c r="C119" s="10" t="s">
         <v>173</v>
@@ -9476,7 +9422,7 @@
       <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="172"/>
+      <c r="A120" s="179"/>
       <c r="B120" s="34"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10" t="s">
@@ -9485,7 +9431,7 @@
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="172"/>
+      <c r="A121" s="179"/>
       <c r="B121" s="34"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
@@ -9494,7 +9440,7 @@
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="172"/>
+      <c r="A122" s="179"/>
       <c r="B122" s="34"/>
       <c r="C122" s="10" t="s">
         <v>177</v>
@@ -9503,7 +9449,7 @@
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="173"/>
+      <c r="A123" s="180"/>
       <c r="B123" s="33"/>
       <c r="C123" s="13" t="s">
         <v>178</v>
@@ -9526,17 +9472,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A75"/>
+    <mergeCell ref="A76:A123"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A75"/>
-    <mergeCell ref="A76:A123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6.Cadena_de_valor.xlsx
+++ b/6.Cadena_de_valor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos D\Gobernación\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37DC82-55C2-4BC1-8C3A-7A696E0C2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE6E43-1DA1-41DC-893C-9FE6249C049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,12 +1085,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -2017,6 +2011,108 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2026,12 +2122,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,123 +2143,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2204,6 +2177,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7031,8 +7025,8 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="62" zoomScaleNormal="85" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="62" zoomScaleNormal="85" zoomScaleSheetLayoutView="62" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7059,21 +7053,21 @@
   <sheetData>
     <row r="1" spans="1:23" s="53" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97"/>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="159"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="107" t="s">
         <v>196</v>
       </c>
@@ -7087,25 +7081,25 @@
       <c r="A2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="155" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="137" t="s">
+      <c r="G2" s="144"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="143" t="s">
+      <c r="K2" s="149"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="145"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="108" t="s">
         <v>220</v>
       </c>
@@ -7119,19 +7113,19 @@
       <c r="A3" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="146"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="183"/>
       <c r="O3" s="108" t="s">
         <v>221</v>
       </c>
@@ -7142,27 +7136,27 @@
       <c r="T3" s="103"/>
     </row>
     <row r="4" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
       <c r="P4" s="110"/>
-      <c r="Q4" s="147" t="s">
+      <c r="Q4" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
       <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -7228,14 +7222,14 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="152" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="156"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="72">
         <v>0</v>
       </c>
@@ -7254,19 +7248,19 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="77"/>
       <c r="S6" s="77"/>
-      <c r="T6" s="135">
+      <c r="T6" s="145">
         <f>+P6+P7</f>
         <v>0</v>
       </c>
       <c r="W6" s="74"/>
     </row>
     <row r="7" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="157"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="131"/>
       <c r="G7" s="72">
         <v>1</v>
       </c>
@@ -7285,18 +7279,18 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="77"/>
       <c r="S7" s="77"/>
-      <c r="T7" s="136"/>
+      <c r="T7" s="146"/>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="156" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="72">
         <v>0</v>
       </c>
@@ -7315,19 +7309,19 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="77"/>
       <c r="S8" s="77"/>
-      <c r="T8" s="135">
+      <c r="T8" s="145">
         <f t="shared" ref="T8" si="1">+P8+P9</f>
         <v>0</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="57" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="67">
         <v>1</v>
       </c>
@@ -7346,20 +7340,20 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
       <c r="S9" s="77"/>
-      <c r="T9" s="136"/>
+      <c r="T9" s="146"/>
       <c r="U9" s="73"/>
       <c r="V9" s="73"/>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="170" t="s">
+      <c r="A10" s="134"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="170"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="67">
         <v>0</v>
       </c>
@@ -7378,19 +7372,19 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="77"/>
       <c r="S10" s="77"/>
-      <c r="T10" s="135">
+      <c r="T10" s="145">
         <f t="shared" ref="T10" si="2">+P10+P11</f>
         <v>0</v>
       </c>
       <c r="W10" s="74"/>
     </row>
     <row r="11" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="67">
         <v>1</v>
       </c>
@@ -7409,18 +7403,18 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
-      <c r="T11" s="136"/>
+      <c r="T11" s="146"/>
       <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="170" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="170"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="67">
         <v>0</v>
       </c>
@@ -7439,19 +7433,19 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="77"/>
       <c r="S12" s="77"/>
-      <c r="T12" s="135">
+      <c r="T12" s="145">
         <f t="shared" ref="T12" si="3">+P12+P13</f>
         <v>0</v>
       </c>
       <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:23" s="57" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="67">
         <v>1</v>
       </c>
@@ -7470,18 +7464,18 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="77"/>
       <c r="S13" s="77"/>
-      <c r="T13" s="136"/>
+      <c r="T13" s="146"/>
       <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="134"/>
+      <c r="A14" s="164"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="105"/>
       <c r="J14" s="106">
         <f>SUM(J6:J13)</f>
@@ -7536,8 +7530,8 @@
     </row>
     <row r="16" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
       <c r="F17" s="80" t="s">
         <v>205</v>
       </c>
@@ -7598,8 +7592,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="121"/>
       <c r="F18" s="80" t="s">
         <v>206</v>
@@ -7661,8 +7655,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="114" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="121"/>
       <c r="F19" s="115" t="s">
         <v>194</v>
@@ -7722,20 +7716,40 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="125"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="121"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="127"/>
+      <c r="B21" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A6:A9"/>
@@ -7752,26 +7766,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7812,14 +7806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="174"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="A1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -8018,8 +8012,8 @@
       <c r="D12" s="62"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="177"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="170"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
@@ -8220,18 +8214,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
+      <c r="A3" s="175"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -8246,7 +8240,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="171" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8259,7 +8253,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="179"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>25</v>
@@ -8268,7 +8262,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="173"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -8277,7 +8271,7 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="171" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -8290,7 +8284,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
         <v>25</v>
@@ -8299,7 +8293,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>26</v>
@@ -8308,7 +8302,7 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="171" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -8323,7 +8317,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
@@ -8336,7 +8330,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="180"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
@@ -8612,7 +8606,7 @@
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="178" t="s">
+      <c r="A40" s="171" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8627,7 +8621,7 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
+      <c r="A41" s="172"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
@@ -8636,7 +8630,7 @@
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="180"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
@@ -8651,7 +8645,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="171" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -8668,7 +8662,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="9" t="s">
         <v>35</v>
       </c>
@@ -8681,7 +8675,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
@@ -8690,7 +8684,7 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
+      <c r="A46" s="172"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
@@ -8699,7 +8693,7 @@
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
+      <c r="A47" s="172"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
@@ -8708,7 +8702,7 @@
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
@@ -8717,7 +8711,7 @@
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
@@ -8741,7 +8735,7 @@
       <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="171" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -8756,7 +8750,7 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="179"/>
+      <c r="A52" s="172"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
@@ -8765,7 +8759,7 @@
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="180"/>
+      <c r="A53" s="173"/>
       <c r="B53" s="33"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
@@ -8774,7 +8768,7 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="171" t="s">
         <v>90</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -8789,7 +8783,7 @@
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="180"/>
+      <c r="A55" s="173"/>
       <c r="B55" s="33"/>
       <c r="C55" s="13" t="s">
         <v>92</v>
@@ -8800,7 +8794,7 @@
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="171" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -8815,7 +8809,7 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="179"/>
+      <c r="A57" s="172"/>
       <c r="B57" s="34"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
@@ -8824,7 +8818,7 @@
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="179"/>
+      <c r="A58" s="172"/>
       <c r="B58" s="34"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="s">
@@ -8833,7 +8827,7 @@
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="179"/>
+      <c r="A59" s="172"/>
       <c r="B59" s="34"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
@@ -8842,7 +8836,7 @@
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="179"/>
+      <c r="A60" s="172"/>
       <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>99</v>
@@ -8853,7 +8847,7 @@
       <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="179"/>
+      <c r="A61" s="172"/>
       <c r="B61" s="34"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
@@ -8862,7 +8856,7 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="179"/>
+      <c r="A62" s="172"/>
       <c r="B62" s="34"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="s">
@@ -8871,7 +8865,7 @@
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="179"/>
+      <c r="A63" s="172"/>
       <c r="B63" s="34"/>
       <c r="C63" s="10" t="s">
         <v>83</v>
@@ -8882,7 +8876,7 @@
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="179"/>
+      <c r="A64" s="172"/>
       <c r="B64" s="34"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
@@ -8891,7 +8885,7 @@
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="179"/>
+      <c r="A65" s="172"/>
       <c r="B65" s="34"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
@@ -8900,7 +8894,7 @@
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="179"/>
+      <c r="A66" s="172"/>
       <c r="B66" s="34"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
@@ -8909,7 +8903,7 @@
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="179"/>
+      <c r="A67" s="172"/>
       <c r="B67" s="34"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
@@ -8918,7 +8912,7 @@
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="179"/>
+      <c r="A68" s="172"/>
       <c r="B68" s="34"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
@@ -8927,7 +8921,7 @@
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="179"/>
+      <c r="A69" s="172"/>
       <c r="B69" s="34"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
@@ -8936,7 +8930,7 @@
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="63" x14ac:dyDescent="0.3">
-      <c r="A70" s="179"/>
+      <c r="A70" s="172"/>
       <c r="B70" s="34"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
@@ -8945,7 +8939,7 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="179"/>
+      <c r="A71" s="172"/>
       <c r="B71" s="34"/>
       <c r="C71" s="10" t="s">
         <v>92</v>
@@ -8956,7 +8950,7 @@
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="179"/>
+      <c r="A72" s="172"/>
       <c r="B72" s="34"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
@@ -8965,7 +8959,7 @@
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="179"/>
+      <c r="A73" s="172"/>
       <c r="B73" s="34"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
@@ -8974,7 +8968,7 @@
       <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="179"/>
+      <c r="A74" s="172"/>
       <c r="B74" s="34"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
@@ -8983,7 +8977,7 @@
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="180"/>
+      <c r="A75" s="173"/>
       <c r="B75" s="33"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
@@ -8992,7 +8986,7 @@
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="178" t="s">
+      <c r="A76" s="171" t="s">
         <v>116</v>
       </c>
       <c r="B76" s="35" t="s">
@@ -9007,7 +9001,7 @@
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="179"/>
+      <c r="A77" s="172"/>
       <c r="B77" s="34"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
@@ -9016,7 +9010,7 @@
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="179"/>
+      <c r="A78" s="172"/>
       <c r="B78" s="36" t="s">
         <v>119</v>
       </c>
@@ -9029,7 +9023,7 @@
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="179"/>
+      <c r="A79" s="172"/>
       <c r="B79" s="34"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
@@ -9038,7 +9032,7 @@
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="179"/>
+      <c r="A80" s="172"/>
       <c r="B80" s="34"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
@@ -9047,7 +9041,7 @@
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="179"/>
+      <c r="A81" s="172"/>
       <c r="B81" s="34"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
@@ -9056,7 +9050,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="179"/>
+      <c r="A82" s="172"/>
       <c r="B82" s="34"/>
       <c r="C82" s="10" t="s">
         <v>125</v>
@@ -9067,7 +9061,7 @@
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="179"/>
+      <c r="A83" s="172"/>
       <c r="B83" s="34"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
@@ -9076,7 +9070,7 @@
       <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="179"/>
+      <c r="A84" s="172"/>
       <c r="B84" s="34"/>
       <c r="C84" s="10" t="s">
         <v>128</v>
@@ -9087,7 +9081,7 @@
       <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="179"/>
+      <c r="A85" s="172"/>
       <c r="B85" s="34"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
@@ -9096,7 +9090,7 @@
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="179"/>
+      <c r="A86" s="172"/>
       <c r="B86" s="34"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
@@ -9105,7 +9099,7 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="179"/>
+      <c r="A87" s="172"/>
       <c r="B87" s="34"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
@@ -9114,7 +9108,7 @@
       <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="179"/>
+      <c r="A88" s="172"/>
       <c r="B88" s="34"/>
       <c r="C88" s="10" t="s">
         <v>133</v>
@@ -9125,7 +9119,7 @@
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="179"/>
+      <c r="A89" s="172"/>
       <c r="B89" s="34"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
@@ -9134,7 +9128,7 @@
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="179"/>
+      <c r="A90" s="172"/>
       <c r="B90" s="34"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
@@ -9143,7 +9137,7 @@
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="179"/>
+      <c r="A91" s="172"/>
       <c r="B91" s="34"/>
       <c r="C91" s="10" t="s">
         <v>137</v>
@@ -9152,7 +9146,7 @@
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="179"/>
+      <c r="A92" s="172"/>
       <c r="B92" s="34"/>
       <c r="C92" s="10" t="s">
         <v>138</v>
@@ -9161,7 +9155,7 @@
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="179"/>
+      <c r="A93" s="172"/>
       <c r="B93" s="34"/>
       <c r="C93" s="10" t="s">
         <v>139</v>
@@ -9170,7 +9164,7 @@
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="179"/>
+      <c r="A94" s="172"/>
       <c r="B94" s="34"/>
       <c r="C94" s="10" t="s">
         <v>140</v>
@@ -9179,7 +9173,7 @@
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="179"/>
+      <c r="A95" s="172"/>
       <c r="B95" s="34"/>
       <c r="C95" s="10" t="s">
         <v>141</v>
@@ -9188,7 +9182,7 @@
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="179"/>
+      <c r="A96" s="172"/>
       <c r="B96" s="34"/>
       <c r="C96" s="10" t="s">
         <v>142</v>
@@ -9197,7 +9191,7 @@
       <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="179"/>
+      <c r="A97" s="172"/>
       <c r="B97" s="34"/>
       <c r="C97" s="10" t="s">
         <v>143</v>
@@ -9206,7 +9200,7 @@
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="179"/>
+      <c r="A98" s="172"/>
       <c r="B98" s="34"/>
       <c r="C98" s="10" t="s">
         <v>144</v>
@@ -9215,7 +9209,7 @@
       <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="179"/>
+      <c r="A99" s="172"/>
       <c r="B99" s="36" t="s">
         <v>145</v>
       </c>
@@ -9228,7 +9222,7 @@
       <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="179"/>
+      <c r="A100" s="172"/>
       <c r="B100" s="34"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
@@ -9237,7 +9231,7 @@
       <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="179"/>
+      <c r="A101" s="172"/>
       <c r="B101" s="34"/>
       <c r="C101" s="10" t="s">
         <v>149</v>
@@ -9248,7 +9242,7 @@
       <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="179"/>
+      <c r="A102" s="172"/>
       <c r="B102" s="34"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="s">
@@ -9257,7 +9251,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="179"/>
+      <c r="A103" s="172"/>
       <c r="B103" s="34"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
@@ -9266,7 +9260,7 @@
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="179"/>
+      <c r="A104" s="172"/>
       <c r="B104" s="34"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10" t="s">
@@ -9275,7 +9269,7 @@
       <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="179"/>
+      <c r="A105" s="172"/>
       <c r="B105" s="34"/>
       <c r="C105" s="10" t="s">
         <v>154</v>
@@ -9284,7 +9278,7 @@
       <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="179"/>
+      <c r="A106" s="172"/>
       <c r="B106" s="34"/>
       <c r="C106" s="10" t="s">
         <v>155</v>
@@ -9293,7 +9287,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="179"/>
+      <c r="A107" s="172"/>
       <c r="B107" s="34"/>
       <c r="C107" s="10" t="s">
         <v>156</v>
@@ -9302,7 +9296,7 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="179"/>
+      <c r="A108" s="172"/>
       <c r="B108" s="34"/>
       <c r="C108" s="10" t="s">
         <v>157</v>
@@ -9311,7 +9305,7 @@
       <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="179"/>
+      <c r="A109" s="172"/>
       <c r="B109" s="34"/>
       <c r="C109" s="10" t="s">
         <v>158</v>
@@ -9320,7 +9314,7 @@
       <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="179"/>
+      <c r="A110" s="172"/>
       <c r="B110" s="36" t="s">
         <v>159</v>
       </c>
@@ -9331,7 +9325,7 @@
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="179"/>
+      <c r="A111" s="172"/>
       <c r="B111" s="34"/>
       <c r="C111" s="10" t="s">
         <v>161</v>
@@ -9342,7 +9336,7 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="179"/>
+      <c r="A112" s="172"/>
       <c r="B112" s="34"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="s">
@@ -9351,7 +9345,7 @@
       <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="179"/>
+      <c r="A113" s="172"/>
       <c r="B113" s="36" t="s">
         <v>164</v>
       </c>
@@ -9362,7 +9356,7 @@
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="179"/>
+      <c r="A114" s="172"/>
       <c r="B114" s="34"/>
       <c r="C114" s="10" t="s">
         <v>166</v>
@@ -9371,7 +9365,7 @@
       <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="179"/>
+      <c r="A115" s="172"/>
       <c r="B115" s="36" t="s">
         <v>167</v>
       </c>
@@ -9384,7 +9378,7 @@
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="179"/>
+      <c r="A116" s="172"/>
       <c r="B116" s="34"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="s">
@@ -9393,7 +9387,7 @@
       <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="179"/>
+      <c r="A117" s="172"/>
       <c r="B117" s="34"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
@@ -9402,7 +9396,7 @@
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="179"/>
+      <c r="A118" s="172"/>
       <c r="B118" s="34"/>
       <c r="C118" s="10" t="s">
         <v>172</v>
@@ -9411,7 +9405,7 @@
       <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="179"/>
+      <c r="A119" s="172"/>
       <c r="B119" s="34"/>
       <c r="C119" s="10" t="s">
         <v>173</v>
@@ -9422,7 +9416,7 @@
       <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="179"/>
+      <c r="A120" s="172"/>
       <c r="B120" s="34"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10" t="s">
@@ -9431,7 +9425,7 @@
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="179"/>
+      <c r="A121" s="172"/>
       <c r="B121" s="34"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
@@ -9440,7 +9434,7 @@
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="179"/>
+      <c r="A122" s="172"/>
       <c r="B122" s="34"/>
       <c r="C122" s="10" t="s">
         <v>177</v>
@@ -9449,7 +9443,7 @@
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="180"/>
+      <c r="A123" s="173"/>
       <c r="B123" s="33"/>
       <c r="C123" s="13" t="s">
         <v>178</v>
@@ -9472,17 +9466,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A75"/>
-    <mergeCell ref="A76:A123"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A75"/>
+    <mergeCell ref="A76:A123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6.Cadena_de_valor.xlsx
+++ b/6.Cadena_de_valor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos D\Gobernación\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE6E43-1DA1-41DC-893C-9FE6249C049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0F003-B1B0-4316-B780-1B8666FBEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,13 +761,13 @@
     <t>Medido a través de</t>
   </si>
   <si>
-    <t>Firma del Secretario/Jefe de Oficina/Dependencia</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>OTROS (Especificar cual) (Coop. Internacional)</t>
+  </si>
+  <si>
+    <t>Firma del Secretario(a)/Jefe de oficina</t>
   </si>
 </sst>
 </file>
@@ -2011,6 +2011,111 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2029,21 +2134,9 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2062,86 +2155,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2177,27 +2198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7025,7 +7025,7 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="62" zoomScaleNormal="85" zoomScaleSheetLayoutView="62" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="62" zoomScaleNormal="85" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
@@ -7053,21 +7053,21 @@
   <sheetData>
     <row r="1" spans="1:23" s="53" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="159"/>
       <c r="O1" s="107" t="s">
         <v>196</v>
       </c>
@@ -7081,25 +7081,25 @@
       <c r="A2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="144" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="147" t="s">
+      <c r="G2" s="155"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="153" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="145"/>
       <c r="O2" s="108" t="s">
         <v>220</v>
       </c>
@@ -7113,19 +7113,19 @@
       <c r="A3" s="101" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="183"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="146"/>
       <c r="O3" s="108" t="s">
         <v>221</v>
       </c>
@@ -7136,27 +7136,27 @@
       <c r="T3" s="103"/>
     </row>
     <row r="4" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
       <c r="P4" s="110"/>
-      <c r="Q4" s="155" t="s">
+      <c r="Q4" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
       <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -7215,21 +7215,21 @@
         <v>210</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T5" s="120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="132" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="72">
         <v>0</v>
       </c>
@@ -7248,19 +7248,19 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="77"/>
       <c r="S6" s="77"/>
-      <c r="T6" s="145">
+      <c r="T6" s="135">
         <f>+P6+P7</f>
         <v>0</v>
       </c>
       <c r="W6" s="74"/>
     </row>
     <row r="7" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="131"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="72">
         <v>1</v>
       </c>
@@ -7279,18 +7279,18 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="77"/>
       <c r="S7" s="77"/>
-      <c r="T7" s="146"/>
+      <c r="T7" s="136"/>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="57" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="129" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="129"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="72">
         <v>0</v>
       </c>
@@ -7309,19 +7309,19 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="77"/>
       <c r="S8" s="77"/>
-      <c r="T8" s="145">
+      <c r="T8" s="135">
         <f t="shared" ref="T8" si="1">+P8+P9</f>
         <v>0</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="57" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="67">
         <v>1</v>
       </c>
@@ -7340,20 +7340,20 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
       <c r="S9" s="77"/>
-      <c r="T9" s="146"/>
+      <c r="T9" s="136"/>
       <c r="U9" s="73"/>
       <c r="V9" s="73"/>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="139" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="67">
         <v>0</v>
       </c>
@@ -7372,19 +7372,19 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="77"/>
       <c r="S10" s="77"/>
-      <c r="T10" s="145">
+      <c r="T10" s="135">
         <f t="shared" ref="T10" si="2">+P10+P11</f>
         <v>0</v>
       </c>
       <c r="W10" s="74"/>
     </row>
     <row r="11" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="67">
         <v>1</v>
       </c>
@@ -7403,18 +7403,18 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
-      <c r="T11" s="146"/>
+      <c r="T11" s="136"/>
       <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="57" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="139" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="67">
         <v>0</v>
       </c>
@@ -7433,19 +7433,19 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="77"/>
       <c r="S12" s="77"/>
-      <c r="T12" s="145">
+      <c r="T12" s="135">
         <f t="shared" ref="T12" si="3">+P12+P13</f>
         <v>0</v>
       </c>
       <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:23" s="57" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
       <c r="G13" s="67">
         <v>1</v>
       </c>
@@ -7464,18 +7464,18 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="77"/>
       <c r="S13" s="77"/>
-      <c r="T13" s="146"/>
+      <c r="T13" s="136"/>
       <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="164"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="166"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="105"/>
       <c r="J14" s="106">
         <f>SUM(J6:J13)</f>
@@ -7530,8 +7530,8 @@
     </row>
     <row r="16" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
       <c r="F17" s="80" t="s">
         <v>205</v>
       </c>
@@ -7592,8 +7592,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="157"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="121"/>
       <c r="F18" s="80" t="s">
         <v>206</v>
@@ -7655,8 +7655,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="114" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="121"/>
       <c r="F19" s="115" t="s">
         <v>194</v>
@@ -7716,40 +7716,20 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="125"/>
+      <c r="C20" s="121"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="121"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="184" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="185"/>
+      <c r="B21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A6:A9"/>
@@ -7766,6 +7746,26 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7806,14 +7806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -8012,8 +8012,8 @@
       <c r="D12" s="62"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="170"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="177"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
@@ -8214,18 +8214,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="178" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8253,7 +8253,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>25</v>
@@ -8262,7 +8262,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -8271,7 +8271,7 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -8284,7 +8284,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
         <v>25</v>
@@ -8293,7 +8293,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>26</v>
@@ -8302,7 +8302,7 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="178" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -8317,7 +8317,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="173"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="178" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8621,7 +8621,7 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="172"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
@@ -8630,7 +8630,7 @@
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="173"/>
+      <c r="A42" s="180"/>
       <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
@@ -8645,7 +8645,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="178" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="9" t="s">
         <v>35</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
+      <c r="A45" s="179"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
@@ -8684,7 +8684,7 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
+      <c r="A46" s="179"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
@@ -8693,7 +8693,7 @@
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="179"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10" t="s">
@@ -8702,7 +8702,7 @@
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
+      <c r="A48" s="179"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
@@ -8711,7 +8711,7 @@
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="173"/>
+      <c r="A49" s="180"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
@@ -8735,7 +8735,7 @@
       <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="171" t="s">
+      <c r="A51" s="178" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -8750,7 +8750,7 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
+      <c r="A52" s="179"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
@@ -8759,7 +8759,7 @@
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="173"/>
+      <c r="A53" s="180"/>
       <c r="B53" s="33"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
@@ -8768,7 +8768,7 @@
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="178" t="s">
         <v>90</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -8783,7 +8783,7 @@
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="173"/>
+      <c r="A55" s="180"/>
       <c r="B55" s="33"/>
       <c r="C55" s="13" t="s">
         <v>92</v>
@@ -8794,7 +8794,7 @@
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
+      <c r="A56" s="178" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -8809,7 +8809,7 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="172"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="34"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
@@ -8818,7 +8818,7 @@
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="172"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="34"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="s">
@@ -8827,7 +8827,7 @@
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="172"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="34"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
@@ -8836,7 +8836,7 @@
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="172"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>99</v>
@@ -8847,7 +8847,7 @@
       <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="172"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="34"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
@@ -8856,7 +8856,7 @@
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="172"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="34"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="s">
@@ -8865,7 +8865,7 @@
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="172"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="34"/>
       <c r="C63" s="10" t="s">
         <v>83</v>
@@ -8876,7 +8876,7 @@
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="172"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="34"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
@@ -8885,7 +8885,7 @@
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="34"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="s">
@@ -8894,7 +8894,7 @@
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="34"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="s">
@@ -8903,7 +8903,7 @@
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="172"/>
+      <c r="A67" s="179"/>
       <c r="B67" s="34"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
@@ -8912,7 +8912,7 @@
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="172"/>
+      <c r="A68" s="179"/>
       <c r="B68" s="34"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
@@ -8921,7 +8921,7 @@
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="172"/>
+      <c r="A69" s="179"/>
       <c r="B69" s="34"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
@@ -8930,7 +8930,7 @@
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="63" x14ac:dyDescent="0.3">
-      <c r="A70" s="172"/>
+      <c r="A70" s="179"/>
       <c r="B70" s="34"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
@@ -8939,7 +8939,7 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="172"/>
+      <c r="A71" s="179"/>
       <c r="B71" s="34"/>
       <c r="C71" s="10" t="s">
         <v>92</v>
@@ -8950,7 +8950,7 @@
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="172"/>
+      <c r="A72" s="179"/>
       <c r="B72" s="34"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
@@ -8959,7 +8959,7 @@
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="172"/>
+      <c r="A73" s="179"/>
       <c r="B73" s="34"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="s">
@@ -8968,7 +8968,7 @@
       <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="172"/>
+      <c r="A74" s="179"/>
       <c r="B74" s="34"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
@@ -8977,7 +8977,7 @@
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="173"/>
+      <c r="A75" s="180"/>
       <c r="B75" s="33"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
@@ -8986,7 +8986,7 @@
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="171" t="s">
+      <c r="A76" s="178" t="s">
         <v>116</v>
       </c>
       <c r="B76" s="35" t="s">
@@ -9001,7 +9001,7 @@
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="172"/>
+      <c r="A77" s="179"/>
       <c r="B77" s="34"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
@@ -9010,7 +9010,7 @@
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="172"/>
+      <c r="A78" s="179"/>
       <c r="B78" s="36" t="s">
         <v>119</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="172"/>
+      <c r="A79" s="179"/>
       <c r="B79" s="34"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
@@ -9032,7 +9032,7 @@
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="172"/>
+      <c r="A80" s="179"/>
       <c r="B80" s="34"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
@@ -9041,7 +9041,7 @@
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="172"/>
+      <c r="A81" s="179"/>
       <c r="B81" s="34"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
@@ -9050,7 +9050,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
+      <c r="A82" s="179"/>
       <c r="B82" s="34"/>
       <c r="C82" s="10" t="s">
         <v>125</v>
@@ -9061,7 +9061,7 @@
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
+      <c r="A83" s="179"/>
       <c r="B83" s="34"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
@@ -9070,7 +9070,7 @@
       <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
+      <c r="A84" s="179"/>
       <c r="B84" s="34"/>
       <c r="C84" s="10" t="s">
         <v>128</v>
@@ -9081,7 +9081,7 @@
       <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="172"/>
+      <c r="A85" s="179"/>
       <c r="B85" s="34"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
@@ -9090,7 +9090,7 @@
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="172"/>
+      <c r="A86" s="179"/>
       <c r="B86" s="34"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
@@ -9099,7 +9099,7 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="172"/>
+      <c r="A87" s="179"/>
       <c r="B87" s="34"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
@@ -9108,7 +9108,7 @@
       <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="172"/>
+      <c r="A88" s="179"/>
       <c r="B88" s="34"/>
       <c r="C88" s="10" t="s">
         <v>133</v>
@@ -9119,7 +9119,7 @@
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="172"/>
+      <c r="A89" s="179"/>
       <c r="B89" s="34"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
@@ -9128,7 +9128,7 @@
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="172"/>
+      <c r="A90" s="179"/>
       <c r="B90" s="34"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
@@ -9137,7 +9137,7 @@
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="172"/>
+      <c r="A91" s="179"/>
       <c r="B91" s="34"/>
       <c r="C91" s="10" t="s">
         <v>137</v>
@@ -9146,7 +9146,7 @@
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="172"/>
+      <c r="A92" s="179"/>
       <c r="B92" s="34"/>
       <c r="C92" s="10" t="s">
         <v>138</v>
@@ -9155,7 +9155,7 @@
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="172"/>
+      <c r="A93" s="179"/>
       <c r="B93" s="34"/>
       <c r="C93" s="10" t="s">
         <v>139</v>
@@ -9164,7 +9164,7 @@
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="172"/>
+      <c r="A94" s="179"/>
       <c r="B94" s="34"/>
       <c r="C94" s="10" t="s">
         <v>140</v>
@@ -9173,7 +9173,7 @@
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="172"/>
+      <c r="A95" s="179"/>
       <c r="B95" s="34"/>
       <c r="C95" s="10" t="s">
         <v>141</v>
@@ -9182,7 +9182,7 @@
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="172"/>
+      <c r="A96" s="179"/>
       <c r="B96" s="34"/>
       <c r="C96" s="10" t="s">
         <v>142</v>
@@ -9191,7 +9191,7 @@
       <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="172"/>
+      <c r="A97" s="179"/>
       <c r="B97" s="34"/>
       <c r="C97" s="10" t="s">
         <v>143</v>
@@ -9200,7 +9200,7 @@
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="172"/>
+      <c r="A98" s="179"/>
       <c r="B98" s="34"/>
       <c r="C98" s="10" t="s">
         <v>144</v>
@@ -9209,7 +9209,7 @@
       <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="172"/>
+      <c r="A99" s="179"/>
       <c r="B99" s="36" t="s">
         <v>145</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="172"/>
+      <c r="A100" s="179"/>
       <c r="B100" s="34"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
@@ -9231,7 +9231,7 @@
       <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="172"/>
+      <c r="A101" s="179"/>
       <c r="B101" s="34"/>
       <c r="C101" s="10" t="s">
         <v>149</v>
@@ -9242,7 +9242,7 @@
       <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="172"/>
+      <c r="A102" s="179"/>
       <c r="B102" s="34"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="s">
@@ -9251,7 +9251,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="172"/>
+      <c r="A103" s="179"/>
       <c r="B103" s="34"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
@@ -9260,7 +9260,7 @@
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="172"/>
+      <c r="A104" s="179"/>
       <c r="B104" s="34"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10" t="s">
@@ -9269,7 +9269,7 @@
       <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="172"/>
+      <c r="A105" s="179"/>
       <c r="B105" s="34"/>
       <c r="C105" s="10" t="s">
         <v>154</v>
@@ -9278,7 +9278,7 @@
       <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="172"/>
+      <c r="A106" s="179"/>
       <c r="B106" s="34"/>
       <c r="C106" s="10" t="s">
         <v>155</v>
@@ -9287,7 +9287,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="172"/>
+      <c r="A107" s="179"/>
       <c r="B107" s="34"/>
       <c r="C107" s="10" t="s">
         <v>156</v>
@@ -9296,7 +9296,7 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="172"/>
+      <c r="A108" s="179"/>
       <c r="B108" s="34"/>
       <c r="C108" s="10" t="s">
         <v>157</v>
@@ -9305,7 +9305,7 @@
       <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="172"/>
+      <c r="A109" s="179"/>
       <c r="B109" s="34"/>
       <c r="C109" s="10" t="s">
         <v>158</v>
@@ -9314,7 +9314,7 @@
       <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="172"/>
+      <c r="A110" s="179"/>
       <c r="B110" s="36" t="s">
         <v>159</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="172"/>
+      <c r="A111" s="179"/>
       <c r="B111" s="34"/>
       <c r="C111" s="10" t="s">
         <v>161</v>
@@ -9336,7 +9336,7 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="172"/>
+      <c r="A112" s="179"/>
       <c r="B112" s="34"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="s">
@@ -9345,7 +9345,7 @@
       <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="172"/>
+      <c r="A113" s="179"/>
       <c r="B113" s="36" t="s">
         <v>164</v>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="172"/>
+      <c r="A114" s="179"/>
       <c r="B114" s="34"/>
       <c r="C114" s="10" t="s">
         <v>166</v>
@@ -9365,7 +9365,7 @@
       <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="172"/>
+      <c r="A115" s="179"/>
       <c r="B115" s="36" t="s">
         <v>167</v>
       </c>
@@ -9378,7 +9378,7 @@
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="172"/>
+      <c r="A116" s="179"/>
       <c r="B116" s="34"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="s">
@@ -9387,7 +9387,7 @@
       <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="172"/>
+      <c r="A117" s="179"/>
       <c r="B117" s="34"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
@@ -9396,7 +9396,7 @@
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="172"/>
+      <c r="A118" s="179"/>
       <c r="B118" s="34"/>
       <c r="C118" s="10" t="s">
         <v>172</v>
@@ -9405,7 +9405,7 @@
       <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="172"/>
+      <c r="A119" s="179"/>
       <c r="B119" s="34"/>
       <c r="C119" s="10" t="s">
         <v>173</v>
@@ -9416,7 +9416,7 @@
       <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="172"/>
+      <c r="A120" s="179"/>
       <c r="B120" s="34"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10" t="s">
@@ -9425,7 +9425,7 @@
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="172"/>
+      <c r="A121" s="179"/>
       <c r="B121" s="34"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
@@ -9434,7 +9434,7 @@
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="172"/>
+      <c r="A122" s="179"/>
       <c r="B122" s="34"/>
       <c r="C122" s="10" t="s">
         <v>177</v>
@@ -9443,7 +9443,7 @@
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="173"/>
+      <c r="A123" s="180"/>
       <c r="B123" s="33"/>
       <c r="C123" s="13" t="s">
         <v>178</v>
@@ -9466,17 +9466,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A75"/>
+    <mergeCell ref="A76:A123"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A75"/>
-    <mergeCell ref="A76:A123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
